--- a/TOM_DECEMBER_only.xlsx
+++ b/TOM_DECEMBER_only.xlsx
@@ -373,7 +373,7 @@
     <t xml:space="preserve">Itsuki</t>
   </si>
   <si>
-    <t xml:space="preserve">Merry Christmas &amp; Happy New Year Itsuki! We loving having you at Super Epion, you're always so happy and well behaved in class! Excellent!</t>
+    <t xml:space="preserve">Merry Christmas &amp; Happy New Year Itsuki! We loving having you at Super Epion, you're always so happy and well behaved in class, and your English is improving so much already! Good job!</t>
   </si>
   <si>
     <t xml:space="preserve">Kotaro</t>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">Hinata</t>
   </si>
   <si>
-    <t xml:space="preserve">Merry Christmas &amp; Happy New Year Hinata! You have worked very hard this year, and are always doing your best! Let's do it!</t>
+    <t xml:space="preserve">Merry Christmas &amp; Happy New Year Hinata! We loving having you at Super Epion, you're always so happy and well behaved in class, and your English is improving so much already! Good job!</t>
   </si>
   <si>
     <t xml:space="preserve">Mana</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">Miyu</t>
   </si>
   <si>
-    <t xml:space="preserve">Merry Christmas &amp; Happy New Year Miyu! You have worked very hard this year, Tomomi &amp; I can see you grow more confident each month! Excellent!</t>
+    <t xml:space="preserve">Merry Christmas &amp; Happy New Year Miyu! We loving having you at Super Epion, you're always so happy and well behaved in class, and your English is improving so much already! Good job!</t>
   </si>
   <si>
     <t xml:space="preserve">Yu</t>
@@ -695,8 +695,8 @@
   </sheetPr>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
